--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2756874.806872154</v>
+        <v>-2757587.411346195</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147701</v>
+        <v>169821.4284147698</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.5623770505816</v>
+        <v>173.1950537865828</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>149.5549529789645</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>188.5623770505816</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718778</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.453064970151</v>
       </c>
       <c r="Y11" t="n">
         <v>188.5623770505816</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810756</v>
+        <v>17.48018068014456</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>48.05561543977868</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851674</v>
+        <v>13.25780256851676</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134813</v>
+        <v>36.64054962134816</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437501</v>
+        <v>58.89840834437504</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084708</v>
+        <v>62.31927159084711</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245643</v>
+        <v>88.37493425245646</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491544</v>
+        <v>38.98326511491547</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947045</v>
+        <v>45.05463680947048</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.0935346565017</v>
+        <v>25.09353465650172</v>
       </c>
       <c r="S13" t="n">
-        <v>57.1057683041275</v>
+        <v>57.10576830412753</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605266</v>
+        <v>45.43126511605269</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226099</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989474</v>
+        <v>66.77936585989477</v>
       </c>
       <c r="W13" t="n">
         <v>111.9810577647802</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368736</v>
+        <v>43.58980608368739</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961325</v>
+        <v>38.81162348961328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="C14" t="n">
-        <v>135.7574189356277</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>125.2942608194447</v>
       </c>
       <c r="G14" t="n">
         <v>188.5623770505816</v>
@@ -1625,7 +1625,7 @@
         <v>168.6883080494462</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384206</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718777</v>
+        <v>16.53078872718774</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13476116065507</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012117</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810756</v>
+        <v>9.188502199810728</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851674</v>
+        <v>90.94275506744532</v>
       </c>
       <c r="T15" t="n">
-        <v>36.64054962134813</v>
+        <v>36.6405496213481</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437501</v>
+        <v>58.89840834437498</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084708</v>
+        <v>62.31927159084705</v>
       </c>
       <c r="W15" t="n">
-        <v>130.0661486435047</v>
+        <v>88.3749342524564</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491544</v>
+        <v>38.98326511491541</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947045</v>
+        <v>45.05463680947042</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.0935346565017</v>
+        <v>25.09353465650166</v>
       </c>
       <c r="S16" t="n">
-        <v>57.1057683041275</v>
+        <v>57.10576830412747</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605266</v>
+        <v>45.43126511605263</v>
       </c>
       <c r="U16" t="n">
         <v>110.3268994226098</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989474</v>
+        <v>66.77936585989471</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9810577647802</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368736</v>
+        <v>43.58980608368734</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961325</v>
+        <v>38.81162348961323</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>188.5623770505816</v>
+        <v>20.86521469787676</v>
       </c>
       <c r="X18" t="n">
-        <v>43.18898600863394</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2090,13 +2090,13 @@
         <v>74.05432026957493</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7746578479523</v>
+        <v>105.7746578479522</v>
       </c>
       <c r="G20" t="n">
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194014</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>23.45519181709079</v>
       </c>
       <c r="W20" t="n">
-        <v>40.4718720337061</v>
+        <v>40.47187203370567</v>
       </c>
       <c r="X20" t="n">
         <v>62.3581225026449</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,25 +2202,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T21" t="n">
-        <v>43.188986008634</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>188.5623770505816</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W21" t="n">
-        <v>188.5623770505816</v>
+        <v>106.7810505784291</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W24" t="n">
         <v>188.5623770505816</v>
       </c>
       <c r="X24" t="n">
-        <v>166.0857417061523</v>
+        <v>106.7810505784291</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2573,7 +2573,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036443</v>
+        <v>27.52983825036444</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>14.04236090203116</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177495</v>
+        <v>8.997433817177505</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325347</v>
+        <v>36.68353794325348</v>
       </c>
       <c r="V26" t="n">
         <v>107.4128069411192</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>1.50322227787052</v>
       </c>
       <c r="U27" t="n">
-        <v>23.7610810008974</v>
+        <v>227.2446683178182</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736947</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
@@ -2700,7 +2700,7 @@
         <v>3.845937771437832</v>
       </c>
       <c r="Y27" t="n">
-        <v>118.9511336847093</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="28">
@@ -2792,25 +2792,25 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
-        <v>136.738520713146</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D29" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E29" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G29" t="n">
-        <v>205.370860277572</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H29" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036445</v>
+        <v>27.5298382503645</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203116</v>
+        <v>14.04236090203121</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177505</v>
+        <v>8.997433817177562</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325347</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411192</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X29" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>140.5942146166794</v>
       </c>
       <c r="D30" t="n">
-        <v>15.96543579255482</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.50322227787052</v>
+        <v>1.503222277870577</v>
       </c>
       <c r="U30" t="n">
-        <v>23.7610810008974</v>
+        <v>23.76108100089746</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.18194424736953</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897882</v>
+        <v>53.23760690897888</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.845937771437889</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992844</v>
+        <v>9.917309465992901</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064989</v>
+        <v>21.96844096064995</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257505</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913222</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641713</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130255</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209756</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135646</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E32" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G32" t="n">
         <v>205.3708602775721</v>
@@ -3047,7 +3047,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036451</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203122</v>
+        <v>14.04236090203119</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177562</v>
+        <v>8.997433817177523</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325353</v>
+        <v>36.6835379432535</v>
       </c>
       <c r="V32" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X32" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>37.46476575967358</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870577</v>
+        <v>1.503222277870549</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089746</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V33" t="n">
-        <v>230.6655315642901</v>
+        <v>27.1819442473695</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437889</v>
+        <v>3.84593777143786</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992872</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064995</v>
+        <v>21.96844096064992</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257511</v>
+        <v>10.29393777257508</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913228</v>
+        <v>75.18957207913225</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641719</v>
+        <v>31.64203851641716</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130261</v>
+        <v>76.84373042130258</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209813</v>
+        <v>8.452478740209784</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135703</v>
+        <v>3.674296146135674</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632154</v>
+        <v>78.14582053632148</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279737</v>
+        <v>65.71248279736994</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677887</v>
+        <v>99.41923521677882</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951562</v>
+        <v>131.1395727951561</v>
       </c>
       <c r="G35" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914408</v>
+        <v>74.95828052914402</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429474</v>
+        <v>48.82010676429468</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090961</v>
+        <v>65.83678698090955</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984885</v>
+        <v>87.72303744984879</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2258905735926</v>
@@ -3348,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>80.35061834217433</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>4.682762785903335</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.5968719023077</v>
+        <v>16.59687190230765</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447805</v>
+        <v>18.25103024447799</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632154</v>
+        <v>78.14582053632148</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279737</v>
+        <v>65.71248279736994</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677887</v>
+        <v>99.41923521677882</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951562</v>
+        <v>131.1395727951561</v>
       </c>
       <c r="G38" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914408</v>
+        <v>74.95828052914402</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429474</v>
+        <v>48.82010676429468</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090961</v>
+        <v>65.83678698090955</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984885</v>
+        <v>87.72303744984879</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2258905735926</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>41.86254079673959</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>37.20799123607073</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.5968719023077</v>
+        <v>16.59687190230765</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447805</v>
+        <v>18.25103024447799</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889006</v>
+        <v>9.153699692889013</v>
       </c>
       <c r="V41" t="n">
         <v>79.88296869075478</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>39.96888962557789</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.785169363621836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>82.25014343071682</v>
       </c>
       <c r="W45" t="n">
-        <v>25.70776865861436</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>182.7768333363863</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>356.6176467595476</v>
+        <v>205.5520376898865</v>
       </c>
       <c r="C11" t="n">
-        <v>356.6176467595476</v>
+        <v>205.5520376898865</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6176467595476</v>
+        <v>205.5520376898865</v>
       </c>
       <c r="E11" t="n">
         <v>205.5520376898865</v>
@@ -5042,49 +5042,49 @@
         <v>115.6457740567086</v>
       </c>
       <c r="K11" t="n">
-        <v>165.4346963245401</v>
+        <v>285.5745218649278</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2080345548341</v>
+        <v>332.3478600952218</v>
       </c>
       <c r="M11" t="n">
-        <v>293.1283452779859</v>
+        <v>413.2681708183736</v>
       </c>
       <c r="N11" t="n">
-        <v>479.8050985580617</v>
+        <v>488.6554207516118</v>
       </c>
       <c r="O11" t="n">
-        <v>666.4818518381375</v>
+        <v>522.9321043850414</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381375</v>
+        <v>666.4818518381376</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112275</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="S11" t="n">
-        <v>737.5517418112275</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="T11" t="n">
-        <v>737.5517418112275</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="U11" t="n">
-        <v>737.5517418112275</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="V11" t="n">
-        <v>737.5517418112275</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="W11" t="n">
-        <v>737.5517418112275</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="X11" t="n">
-        <v>737.5517418112275</v>
+        <v>570.9635839900527</v>
       </c>
       <c r="Y11" t="n">
-        <v>547.0846942853875</v>
+        <v>380.4965364642127</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407.2506513316907</v>
+        <v>85.72980362586389</v>
       </c>
       <c r="C12" t="n">
-        <v>397.9693359783465</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D12" t="n">
-        <v>237.1892197393782</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E12" t="n">
-        <v>63.62601586079268</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F12" t="n">
-        <v>63.62601586079268</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G12" t="n">
-        <v>63.62601586079268</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H12" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I12" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635118</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110303</v>
+        <v>670.5904072110304</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="Q12" t="n">
-        <v>754.2495082023263</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="R12" t="n">
-        <v>754.2495082023263</v>
+        <v>611.2645134234349</v>
       </c>
       <c r="S12" t="n">
-        <v>740.8577884361478</v>
+        <v>597.8727936572564</v>
       </c>
       <c r="T12" t="n">
-        <v>703.8471322529679</v>
+        <v>560.8621374740763</v>
       </c>
       <c r="U12" t="n">
-        <v>644.3537904909729</v>
+        <v>501.3687957120814</v>
       </c>
       <c r="V12" t="n">
-        <v>581.405031308299</v>
+        <v>438.4200365294075</v>
       </c>
       <c r="W12" t="n">
-        <v>492.1374209522825</v>
+        <v>349.1524261733909</v>
       </c>
       <c r="X12" t="n">
-        <v>452.7603854826709</v>
+        <v>309.7753907037793</v>
       </c>
       <c r="Y12" t="n">
-        <v>407.2506513316907</v>
+        <v>264.265656552799</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703773</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C13" t="n">
-        <v>15.79059153703773</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D13" t="n">
-        <v>15.79059153703773</v>
+        <v>47.90051924715251</v>
       </c>
       <c r="E13" t="n">
-        <v>15.79059153703773</v>
+        <v>84.18749227835934</v>
       </c>
       <c r="F13" t="n">
-        <v>15.79059153703773</v>
+        <v>123.1962317134067</v>
       </c>
       <c r="G13" t="n">
-        <v>15.79059153703773</v>
+        <v>123.1962317134067</v>
       </c>
       <c r="H13" t="n">
-        <v>15.79059153703773</v>
+        <v>123.1962317134067</v>
       </c>
       <c r="I13" t="n">
-        <v>15.79059153703773</v>
+        <v>136.542633562317</v>
       </c>
       <c r="J13" t="n">
-        <v>15.79059153703773</v>
+        <v>194.0623246289286</v>
       </c>
       <c r="K13" t="n">
-        <v>125.9946004980354</v>
+        <v>210.4979521971122</v>
       </c>
       <c r="L13" t="n">
-        <v>125.9946004980354</v>
+        <v>210.4979521971122</v>
       </c>
       <c r="M13" t="n">
-        <v>219.5683396184342</v>
+        <v>210.4979521971122</v>
       </c>
       <c r="N13" t="n">
-        <v>379.7825711421986</v>
+        <v>210.4979521971122</v>
       </c>
       <c r="O13" t="n">
-        <v>519.2459201612862</v>
+        <v>349.9613012161998</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612862</v>
+        <v>468.6318884260467</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612862</v>
+        <v>519.2459201612863</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577491</v>
+        <v>493.8989154577492</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111557</v>
+        <v>436.2163212111558</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272641</v>
+        <v>390.3261544272642</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791733</v>
+        <v>278.8848418791735</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701888</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980473</v>
+        <v>98.31875740980479</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456497</v>
+        <v>54.288650254565</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404653</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>576.3731413049532</v>
+        <v>502.504127456443</v>
       </c>
       <c r="C14" t="n">
-        <v>439.2444353093696</v>
+        <v>502.504127456443</v>
       </c>
       <c r="D14" t="n">
-        <v>439.2444353093696</v>
+        <v>502.504127456443</v>
       </c>
       <c r="E14" t="n">
-        <v>439.2444353093696</v>
+        <v>502.504127456443</v>
       </c>
       <c r="F14" t="n">
-        <v>439.2444353093696</v>
+        <v>375.9442680428625</v>
       </c>
       <c r="G14" t="n">
-        <v>248.7773877835296</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055366</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>15.08499016404653</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>15.08499016404653</v>
+        <v>285.5745218649279</v>
       </c>
       <c r="L14" t="n">
-        <v>61.85832839434052</v>
+        <v>472.2512751450037</v>
       </c>
       <c r="M14" t="n">
-        <v>248.5350816744163</v>
+        <v>553.1715858681555</v>
       </c>
       <c r="N14" t="n">
-        <v>323.9223316076544</v>
+        <v>628.5588358013936</v>
       </c>
       <c r="O14" t="n">
-        <v>510.5990848877302</v>
+        <v>662.8355194348231</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4818518381375</v>
+        <v>666.4818518381376</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="R14" t="n">
-        <v>737.5517418112275</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="S14" t="n">
-        <v>737.5517418112275</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="T14" t="n">
-        <v>737.5517418112275</v>
+        <v>692.9711749822831</v>
       </c>
       <c r="U14" t="n">
-        <v>737.5517418112275</v>
+        <v>692.9711749822831</v>
       </c>
       <c r="V14" t="n">
-        <v>737.5517418112275</v>
+        <v>692.9711749822831</v>
       </c>
       <c r="W14" t="n">
-        <v>576.3731413049532</v>
+        <v>692.9711749822831</v>
       </c>
       <c r="X14" t="n">
-        <v>576.3731413049532</v>
+        <v>692.9711749822831</v>
       </c>
       <c r="Y14" t="n">
-        <v>576.3731413049532</v>
+        <v>692.9711749822831</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>365.138313562955</v>
+        <v>185.7960075639826</v>
       </c>
       <c r="C15" t="n">
-        <v>355.8569982096108</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="D15" t="n">
-        <v>195.0768819706425</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="E15" t="n">
-        <v>195.0768819706425</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="F15" t="n">
-        <v>195.0768819706425</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="G15" t="n">
-        <v>195.0768819706425</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="H15" t="n">
-        <v>68.07305546410173</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I15" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J15" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635129</v>
       </c>
       <c r="L15" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681696</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110303</v>
+        <v>670.5904072110304</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="Q15" t="n">
-        <v>754.2495082023263</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="R15" t="n">
-        <v>754.2495082023263</v>
+        <v>611.2645134234349</v>
       </c>
       <c r="S15" t="n">
-        <v>740.8577884361478</v>
+        <v>519.4031446684396</v>
       </c>
       <c r="T15" t="n">
-        <v>703.8471322529679</v>
+        <v>482.3924884852597</v>
       </c>
       <c r="U15" t="n">
-        <v>644.3537904909729</v>
+        <v>422.8991467232647</v>
       </c>
       <c r="V15" t="n">
-        <v>581.405031308299</v>
+        <v>359.9503875405909</v>
       </c>
       <c r="W15" t="n">
-        <v>450.0250831835468</v>
+        <v>270.6827771845743</v>
       </c>
       <c r="X15" t="n">
-        <v>410.6480477139352</v>
+        <v>231.3057417149628</v>
       </c>
       <c r="Y15" t="n">
-        <v>365.138313562955</v>
+        <v>185.7960075639826</v>
       </c>
     </row>
     <row r="16">
@@ -5419,64 +5419,64 @@
         <v>15.08499016404653</v>
       </c>
       <c r="E16" t="n">
-        <v>15.08499016404653</v>
+        <v>51.37196319525343</v>
       </c>
       <c r="F16" t="n">
-        <v>15.08499016404653</v>
+        <v>51.37196319525343</v>
       </c>
       <c r="G16" t="n">
-        <v>15.08499016404653</v>
+        <v>51.37196319525343</v>
       </c>
       <c r="H16" t="n">
-        <v>15.08499016404653</v>
+        <v>51.37196319525343</v>
       </c>
       <c r="I16" t="n">
-        <v>15.08499016404653</v>
+        <v>64.71836504416376</v>
       </c>
       <c r="J16" t="n">
-        <v>72.60468123065809</v>
+        <v>122.2380561107753</v>
       </c>
       <c r="K16" t="n">
-        <v>182.8086901916558</v>
+        <v>122.2380561107753</v>
       </c>
       <c r="L16" t="n">
-        <v>327.5469296469137</v>
+        <v>210.4979521971116</v>
       </c>
       <c r="M16" t="n">
-        <v>359.0316886375218</v>
+        <v>210.4979521971116</v>
       </c>
       <c r="N16" t="n">
-        <v>519.2459201612862</v>
+        <v>210.4979521971116</v>
       </c>
       <c r="O16" t="n">
-        <v>519.2459201612862</v>
+        <v>349.9613012161993</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612862</v>
+        <v>468.6318884260462</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612862</v>
+        <v>519.2459201612859</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577491</v>
+        <v>493.8989154577488</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111557</v>
+        <v>436.2163212111554</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272641</v>
+        <v>390.3261544272639</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791733</v>
+        <v>278.8848418791732</v>
       </c>
       <c r="V16" t="n">
         <v>211.4309369701887</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980473</v>
+        <v>98.31875740980468</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456497</v>
+        <v>54.28865025456494</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340409</v>
+        <v>463.533537934041</v>
       </c>
       <c r="C17" t="n">
-        <v>410.219491884427</v>
+        <v>410.2194918844272</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438554</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372142</v>
+        <v>294.662029137214</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019085</v>
+        <v>187.8189404019087</v>
       </c>
       <c r="G17" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H17" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>15.08499016404653</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="J17" t="n">
-        <v>15.08499016404653</v>
+        <v>181.8753237902548</v>
       </c>
       <c r="K17" t="n">
-        <v>201.7617434441223</v>
+        <v>181.8753237902548</v>
       </c>
       <c r="L17" t="n">
-        <v>248.5350816744163</v>
+        <v>228.6486620205488</v>
       </c>
       <c r="M17" t="n">
-        <v>435.211834954492</v>
+        <v>309.5689727437006</v>
       </c>
       <c r="N17" t="n">
-        <v>618.4343123659817</v>
+        <v>384.9562226769388</v>
       </c>
       <c r="O17" t="n">
-        <v>652.7109959994112</v>
+        <v>419.2329063103683</v>
       </c>
       <c r="P17" t="n">
-        <v>652.7109959994112</v>
+        <v>419.2329063103683</v>
       </c>
       <c r="Q17" t="n">
-        <v>652.7109959994112</v>
+        <v>605.9096595904441</v>
       </c>
       <c r="R17" t="n">
-        <v>754.2495082023263</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="S17" t="n">
-        <v>754.2495082023263</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="T17" t="n">
-        <v>754.2495082023263</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557697</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338446</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059205</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.970556707548</v>
+        <v>540.9705567075482</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.08499016404653</v>
+        <v>345.3237755965603</v>
       </c>
       <c r="C18" t="n">
-        <v>15.08499016404653</v>
+        <v>345.3237755965603</v>
       </c>
       <c r="D18" t="n">
-        <v>15.08499016404653</v>
+        <v>345.3237755965603</v>
       </c>
       <c r="E18" t="n">
-        <v>15.08499016404653</v>
+        <v>345.3237755965603</v>
       </c>
       <c r="F18" t="n">
-        <v>15.08499016404653</v>
+        <v>345.3237755965603</v>
       </c>
       <c r="G18" t="n">
-        <v>15.08499016404653</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="H18" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635129</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681696</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110303</v>
+        <v>670.5904072110304</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="Q18" t="n">
-        <v>754.2495082023263</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="R18" t="n">
-        <v>618.1801765352211</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="S18" t="n">
-        <v>618.1801765352211</v>
+        <v>556.8667975647001</v>
       </c>
       <c r="T18" t="n">
-        <v>618.1801765352211</v>
+        <v>366.39975003886</v>
       </c>
       <c r="U18" t="n">
-        <v>618.1801765352211</v>
+        <v>366.39975003886</v>
       </c>
       <c r="V18" t="n">
-        <v>618.1801765352211</v>
+        <v>366.39975003886</v>
       </c>
       <c r="W18" t="n">
-        <v>427.7131290093811</v>
+        <v>345.3237755965603</v>
       </c>
       <c r="X18" t="n">
-        <v>384.0878906168216</v>
+        <v>345.3237755965603</v>
       </c>
       <c r="Y18" t="n">
-        <v>193.6208430909816</v>
+        <v>345.3237755965603</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340404</v>
+        <v>463.5335379340407</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844266</v>
+        <v>410.2194918844269</v>
       </c>
       <c r="D20" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438554</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019083</v>
+        <v>187.8189404019089</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267294</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>15.08499016404653</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="J20" t="n">
-        <v>15.08499016404653</v>
+        <v>257.6252425490497</v>
       </c>
       <c r="K20" t="n">
-        <v>15.08499016404653</v>
+        <v>294.3414975765481</v>
       </c>
       <c r="L20" t="n">
-        <v>201.7617434441223</v>
+        <v>341.1148358068422</v>
       </c>
       <c r="M20" t="n">
-        <v>388.438496724198</v>
+        <v>422.0351465299939</v>
       </c>
       <c r="N20" t="n">
-        <v>463.8257466574362</v>
+        <v>497.4223964632321</v>
       </c>
       <c r="O20" t="n">
-        <v>520.7714185132833</v>
+        <v>531.6990800966616</v>
       </c>
       <c r="P20" t="n">
-        <v>520.7714185132833</v>
+        <v>531.6990800966616</v>
       </c>
       <c r="Q20" t="n">
-        <v>707.4481717933591</v>
+        <v>531.6990800966616</v>
       </c>
       <c r="R20" t="n">
-        <v>707.4481717933591</v>
+        <v>633.2375922995767</v>
       </c>
       <c r="S20" t="n">
-        <v>707.4481717933591</v>
+        <v>633.2375922995767</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933591</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="V20" t="n">
-        <v>730.55739525577</v>
+        <v>730.5573952557696</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338441</v>
+        <v>689.6767164338445</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059201</v>
+        <v>626.6887139059204</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075475</v>
+        <v>540.970556707548</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="C21" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D21" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E21" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F21" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G21" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H21" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635129</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681696</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110303</v>
+        <v>670.5904072110304</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.2495082023263</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="R21" t="n">
-        <v>618.1801765352211</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="S21" t="n">
-        <v>618.1801765352211</v>
+        <v>556.8667975647001</v>
       </c>
       <c r="T21" t="n">
-        <v>574.5549381426615</v>
+        <v>556.8667975647001</v>
       </c>
       <c r="U21" t="n">
-        <v>384.0878906168216</v>
+        <v>366.39975003886</v>
       </c>
       <c r="V21" t="n">
-        <v>384.0878906168216</v>
+        <v>175.93270251302</v>
       </c>
       <c r="W21" t="n">
-        <v>193.6208430909816</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="X21" t="n">
-        <v>193.6208430909816</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.6208430909816</v>
+        <v>68.07305546410171</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340412</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844274</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438556</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372143</v>
+        <v>294.6620291372142</v>
       </c>
       <c r="F23" t="n">
         <v>187.8189404019089</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H23" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>70.94848926897389</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="J23" t="n">
-        <v>70.94848926897389</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="K23" t="n">
-        <v>257.6252425490496</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="L23" t="n">
-        <v>444.3019958291254</v>
+        <v>117.7218274992679</v>
       </c>
       <c r="M23" t="n">
-        <v>525.2223065522771</v>
+        <v>198.6421382224197</v>
       </c>
       <c r="N23" t="n">
-        <v>600.6095564855152</v>
+        <v>274.0293881556578</v>
       </c>
       <c r="O23" t="n">
-        <v>634.8862401189448</v>
+        <v>308.3060717890874</v>
       </c>
       <c r="P23" t="n">
-        <v>634.8862401189448</v>
+        <v>308.3060717890874</v>
       </c>
       <c r="Q23" t="n">
-        <v>685.0334065225489</v>
+        <v>462.4829784168839</v>
       </c>
       <c r="R23" t="n">
-        <v>685.0334065225489</v>
+        <v>564.021490619799</v>
       </c>
       <c r="S23" t="n">
-        <v>754.2495082023263</v>
+        <v>633.2375922995764</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023263</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="V23" t="n">
-        <v>730.55739525577</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338451</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059208</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075483</v>
+        <v>540.9705567075482</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="C24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J24" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635129</v>
       </c>
       <c r="L24" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681696</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110303</v>
+        <v>670.5904072110304</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023264</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023263</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="R24" t="n">
-        <v>754.2495082023263</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="S24" t="n">
-        <v>754.2495082023263</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="T24" t="n">
-        <v>563.7824606764864</v>
+        <v>747.3338450905401</v>
       </c>
       <c r="U24" t="n">
-        <v>563.7824606764864</v>
+        <v>556.8667975647001</v>
       </c>
       <c r="V24" t="n">
-        <v>563.7824606764864</v>
+        <v>366.39975003886</v>
       </c>
       <c r="W24" t="n">
-        <v>373.3154131506464</v>
+        <v>175.93270251302</v>
       </c>
       <c r="X24" t="n">
-        <v>205.5520376898865</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
     </row>
     <row r="25">
@@ -6203,25 +6203,25 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792738</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962485</v>
+        <v>757.3316491962489</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471542</v>
+        <v>597.7236336471547</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693963</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577067</v>
+        <v>198.6295596577073</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662737</v>
+        <v>63.7295791466274</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J26" t="n">
         <v>171.2683996847217</v>
@@ -6230,10 +6230,10 @@
         <v>375.9831015629837</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946306</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191348</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6242,19 +6242,19 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870716</v>
       </c>
       <c r="R26" t="n">
-        <v>1796.083086100842</v>
+        <v>1796.083086100843</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U26" t="n">
         <v>1735.75648745189</v>
@@ -6266,10 +6266,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>346.9486715869028</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C27" t="n">
-        <v>346.9486715869028</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D27" t="n">
-        <v>186.1685553479346</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E27" t="n">
-        <v>186.1685553479346</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F27" t="n">
-        <v>186.1685553479346</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K27" t="n">
-        <v>73.9137287543215</v>
+        <v>73.91372875432151</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M27" t="n">
-        <v>373.0070382066379</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N27" t="n">
         <v>577.9583061004877</v>
@@ -6336,19 +6336,19 @@
         <v>791.8422880327872</v>
       </c>
       <c r="U27" t="n">
-        <v>767.8411961126889</v>
+        <v>562.3022190248901</v>
       </c>
       <c r="V27" t="n">
-        <v>740.3846867719117</v>
+        <v>319.2225009285242</v>
       </c>
       <c r="W27" t="n">
-        <v>470.986117502203</v>
+        <v>49.82393165881552</v>
       </c>
       <c r="X27" t="n">
-        <v>467.101331874488</v>
+        <v>45.93914603110053</v>
       </c>
       <c r="Y27" t="n">
-        <v>346.9486715869028</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="28">
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I28" t="n">
-        <v>84.05401764096997</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J28" t="n">
-        <v>176.3596627776244</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K28" t="n">
-        <v>176.3596627776244</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L28" t="n">
-        <v>176.3596627776244</v>
+        <v>79.8988373002002</v>
       </c>
       <c r="M28" t="n">
-        <v>256.3464833623372</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="N28" t="n">
-        <v>256.3464833623372</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="O28" t="n">
-        <v>256.3464833623372</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="P28" t="n">
-        <v>256.3464833623372</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.3464833623372</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R28" t="n">
         <v>266.2898381224434</v>
@@ -6421,13 +6421,13 @@
         <v>125.7908590024693</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398189</v>
+        <v>48.17092928398191</v>
       </c>
       <c r="X28" t="n">
-        <v>39.6330719706387</v>
+        <v>39.63307197063872</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792731</v>
+        <v>882.892440079273</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962483</v>
+        <v>757.3316491962482</v>
       </c>
       <c r="E29" t="n">
-        <v>597.723633647154</v>
+        <v>597.7236336471539</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693956</v>
+        <v>406.0748730693955</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577071</v>
+        <v>198.6295596577065</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662766</v>
+        <v>63.72957914662762</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
         <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629835</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946306</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191348</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6479,16 +6479,16 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.662612870716</v>
+        <v>1777.662612870715</v>
       </c>
       <c r="R29" t="n">
-        <v>1796.083086100843</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169498</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T29" t="n">
         <v>1772.810566182449</v>
@@ -6497,13 +6497,13 @@
         <v>1735.75648745189</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.2548485873</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>241.4606388098156</v>
+        <v>672.7070563209926</v>
       </c>
       <c r="C30" t="n">
-        <v>52.0483645427793</v>
+        <v>530.6926981223265</v>
       </c>
       <c r="D30" t="n">
-        <v>35.92166172201685</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="E30" t="n">
-        <v>35.92166172201685</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K30" t="n">
         <v>73.91372875432151</v>
@@ -6549,7 +6549,7 @@
         <v>191.2852937261398</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066379</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N30" t="n">
         <v>577.9583061004877</v>
@@ -6573,19 +6573,19 @@
         <v>791.8422880327872</v>
       </c>
       <c r="U30" t="n">
-        <v>767.8411961126889</v>
+        <v>767.8411961126887</v>
       </c>
       <c r="V30" t="n">
-        <v>524.7614780163229</v>
+        <v>740.3846867719114</v>
       </c>
       <c r="W30" t="n">
-        <v>470.9861175022029</v>
+        <v>686.6093262577914</v>
       </c>
       <c r="X30" t="n">
-        <v>251.4781231188992</v>
+        <v>682.7245406300764</v>
       </c>
       <c r="Y30" t="n">
-        <v>241.4606388098156</v>
+        <v>672.7070563209926</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K31" t="n">
-        <v>92.04053503331292</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L31" t="n">
-        <v>92.04053503331292</v>
+        <v>79.89883730020063</v>
       </c>
       <c r="M31" t="n">
-        <v>92.04053503331292</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="N31" t="n">
-        <v>92.04053503331292</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177465</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757515</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695573</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024693</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398191</v>
+        <v>48.17092928398201</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063872</v>
+        <v>39.63307197063876</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="32">
@@ -6677,43 +6677,43 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.892440079273</v>
+        <v>882.8924400792732</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962481</v>
+        <v>757.3316491962485</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471537</v>
+        <v>597.7236336471541</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693954</v>
+        <v>406.0748730693958</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577064</v>
+        <v>198.6295596577068</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662697</v>
+        <v>63.72957914662741</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847216</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946299</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191338</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153724</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
         <v>1655.109002436483</v>
@@ -6725,16 +6725,16 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S32" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U32" t="n">
         <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W32" t="n">
         <v>1501.572351998503</v>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.92166172201684</v>
+        <v>196.7017779609851</v>
       </c>
       <c r="C33" t="n">
-        <v>35.92166172201684</v>
+        <v>196.7017779609851</v>
       </c>
       <c r="D33" t="n">
         <v>35.92166172201684</v>
@@ -6786,7 +6786,7 @@
         <v>191.2852937261398</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066379</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N33" t="n">
         <v>577.9583061004877</v>
@@ -6798,31 +6798,31 @@
         <v>793.3606943740706</v>
       </c>
       <c r="Q33" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="R33" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="S33" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="T33" t="n">
-        <v>791.8422880327872</v>
+        <v>784.9266249210009</v>
       </c>
       <c r="U33" t="n">
-        <v>767.8411961126887</v>
+        <v>545.3023242453138</v>
       </c>
       <c r="V33" t="n">
-        <v>534.8457096841129</v>
+        <v>517.8458149045365</v>
       </c>
       <c r="W33" t="n">
-        <v>265.4471404144042</v>
+        <v>248.4472456348278</v>
       </c>
       <c r="X33" t="n">
-        <v>261.5623547866892</v>
+        <v>244.5624600071128</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.92166172201684</v>
+        <v>234.5449756980291</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>82.46135946111661</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D34" t="n">
-        <v>82.46135946111661</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>82.46135946111661</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F34" t="n">
-        <v>82.46135946111661</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G34" t="n">
-        <v>82.46135946111661</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H34" t="n">
-        <v>129.628839371767</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I34" t="n">
-        <v>177.7611952907201</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J34" t="n">
-        <v>177.7611952907201</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K34" t="n">
-        <v>256.3464833623377</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L34" t="n">
-        <v>256.3464833623377</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M34" t="n">
-        <v>256.3464833623377</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3464833623377</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="O34" t="n">
-        <v>256.3464833623377</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="P34" t="n">
-        <v>256.3464833623377</v>
+        <v>180.8898523171611</v>
       </c>
       <c r="Q34" t="n">
-        <v>256.3464833623377</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177468</v>
+        <v>244.0994937177466</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757518</v>
+        <v>233.7015767757516</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695574</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024695</v>
+        <v>125.7908590024694</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398201</v>
+        <v>48.17092928398195</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063877</v>
+        <v>39.63307197063873</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837459</v>
+        <v>623.011976583746</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248352</v>
+        <v>544.0768043248354</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749666</v>
+        <v>477.7005590749668</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590283</v>
+        <v>377.2770891590285</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144258</v>
+        <v>244.8128742144263</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589363</v>
+        <v>96.55210643589356</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83667155797032</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="J35" t="n">
-        <v>20.83667155797032</v>
+        <v>244.942416002927</v>
       </c>
       <c r="K35" t="n">
-        <v>165.6617649744808</v>
+        <v>244.942416002927</v>
       </c>
       <c r="L35" t="n">
-        <v>423.5155755043635</v>
+        <v>291.715754233221</v>
       </c>
       <c r="M35" t="n">
-        <v>504.4358862275153</v>
+        <v>372.6360649563728</v>
       </c>
       <c r="N35" t="n">
-        <v>762.2896967573979</v>
+        <v>448.023314889611</v>
       </c>
       <c r="O35" t="n">
-        <v>1020.14350728728</v>
+        <v>482.2999985230406</v>
       </c>
       <c r="P35" t="n">
-        <v>1020.14350728728</v>
+        <v>669.951727694713</v>
       </c>
       <c r="Q35" t="n">
-        <v>1020.14350728728</v>
+        <v>850.512111304001</v>
       </c>
       <c r="R35" t="n">
-        <v>1020.14350728728</v>
+        <v>926.9393577091843</v>
       </c>
       <c r="S35" t="n">
-        <v>1020.14350728728</v>
+        <v>971.0441935912297</v>
       </c>
       <c r="T35" t="n">
         <v>1020.14350728728</v>
@@ -6971,7 +6971,7 @@
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426623</v>
+        <v>992.520338742662</v>
       </c>
       <c r="W35" t="n">
         <v>926.0185337114403</v>
@@ -6980,7 +6980,7 @@
         <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665499</v>
+        <v>726.07012156655</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>275.5621161862269</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C36" t="n">
-        <v>275.5621161862269</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D36" t="n">
-        <v>194.3998754365558</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K36" t="n">
         <v>58.82873859027498</v>
@@ -7035,31 +7035,31 @@
         <v>778.2757042100241</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="R36" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="S36" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="T36" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="U36" t="n">
-        <v>538.651403534337</v>
+        <v>531.7357404225506</v>
       </c>
       <c r="V36" t="n">
-        <v>538.651403534337</v>
+        <v>288.6560223261847</v>
       </c>
       <c r="W36" t="n">
-        <v>275.5621161862269</v>
+        <v>25.56673497807469</v>
       </c>
       <c r="X36" t="n">
-        <v>275.5621161862269</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y36" t="n">
-        <v>275.5621161862269</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837462</v>
+        <v>623.0119765837463</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248356</v>
+        <v>544.0768043248357</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749669</v>
+        <v>477.700559074967</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590287</v>
+        <v>377.2770891590288</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144264</v>
+        <v>244.8128742144266</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589363</v>
+        <v>96.55210643589356</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83667155797032</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="J38" t="n">
-        <v>20.83667155797032</v>
+        <v>244.942416002927</v>
       </c>
       <c r="K38" t="n">
-        <v>278.690482087853</v>
+        <v>432.5941451745996</v>
       </c>
       <c r="L38" t="n">
-        <v>422.4274829094832</v>
+        <v>479.3674834048936</v>
       </c>
       <c r="M38" t="n">
-        <v>503.3477936326349</v>
+        <v>560.2877941280453</v>
       </c>
       <c r="N38" t="n">
-        <v>761.2016041625176</v>
+        <v>635.6750440612834</v>
       </c>
       <c r="O38" t="n">
-        <v>795.4782877959472</v>
+        <v>669.951727694713</v>
       </c>
       <c r="P38" t="n">
-        <v>795.4782877959472</v>
+        <v>669.951727694713</v>
       </c>
       <c r="Q38" t="n">
-        <v>976.038671405235</v>
+        <v>850.512111304001</v>
       </c>
       <c r="R38" t="n">
-        <v>976.038671405235</v>
+        <v>926.9393577091843</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.14350728728</v>
+        <v>971.0441935912297</v>
       </c>
       <c r="T38" t="n">
         <v>1020.14350728728</v>
@@ -7208,16 +7208,16 @@
         <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426625</v>
+        <v>992.5203387426624</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114407</v>
+        <v>926.0185337114406</v>
       </c>
       <c r="X38" t="n">
         <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665503</v>
+        <v>726.0701215665504</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58.4205010893549</v>
+        <v>63.12206630215172</v>
       </c>
       <c r="C39" t="n">
-        <v>58.4205010893549</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D39" t="n">
-        <v>58.4205010893549</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K39" t="n">
         <v>58.82873859027498</v>
@@ -7272,31 +7272,31 @@
         <v>778.2757042100241</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="R39" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="S39" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="T39" t="n">
-        <v>561.1340891131521</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="U39" t="n">
-        <v>321.509788437465</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="V39" t="n">
-        <v>321.509788437465</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="W39" t="n">
-        <v>58.4205010893549</v>
+        <v>508.2707537501277</v>
       </c>
       <c r="X39" t="n">
-        <v>58.4205010893549</v>
+        <v>288.7627593668241</v>
       </c>
       <c r="Y39" t="n">
-        <v>58.4205010893549</v>
+        <v>63.12206630215172</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676714</v>
+        <v>818.5041758676709</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1923754002152</v>
+        <v>708.1923754002147</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418012</v>
+        <v>610.4395019418007</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173173</v>
+        <v>478.6394038173169</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641696</v>
+        <v>314.7985606641691</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1611646770912</v>
+        <v>135.1611646770911</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06910159062234</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K41" t="n">
-        <v>28.06910159062234</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L41" t="n">
-        <v>313.4292865901295</v>
+        <v>469.4129593976048</v>
       </c>
       <c r="M41" t="n">
-        <v>632.9364440824945</v>
+        <v>550.3332701207567</v>
       </c>
       <c r="N41" t="n">
-        <v>946.9105407849459</v>
+        <v>679.7150721488508</v>
       </c>
       <c r="O41" t="n">
-        <v>1219.774071187589</v>
+        <v>952.5786025514938</v>
       </c>
       <c r="P41" t="n">
-        <v>1326.080383469424</v>
+        <v>1176.272233167331</v>
       </c>
       <c r="Q41" t="n">
         <v>1326.080383469424</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.755396567412</v>
+        <v>1371.755396567411</v>
       </c>
       <c r="S41" t="n">
-        <v>1385.107999142262</v>
+        <v>1385.107999142261</v>
       </c>
       <c r="T41" t="n">
         <v>1403.455079531117</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.208918225169</v>
+        <v>1394.208918225168</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.51905086077</v>
+        <v>1313.519050860769</v>
       </c>
       <c r="W41" t="n">
         <v>1215.640617621002</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.654860675236</v>
+        <v>1095.654860675235</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.938949059021</v>
+        <v>952.9389490590205</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.0600217519638</v>
+        <v>712.2524122579683</v>
       </c>
       <c r="C42" t="n">
-        <v>362.0600217519638</v>
+        <v>522.840137990932</v>
       </c>
       <c r="D42" t="n">
-        <v>362.0600217519638</v>
+        <v>362.0600217519637</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4968178733783</v>
+        <v>188.4968178733782</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K42" t="n">
         <v>66.061168622927</v>
@@ -7509,31 +7509,31 @@
         <v>785.5081342426761</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="R42" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="S42" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="T42" t="n">
-        <v>568.3665191458041</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="U42" t="n">
-        <v>568.3665191458041</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="V42" t="n">
-        <v>568.3665191458041</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="W42" t="n">
-        <v>542.3990760562947</v>
+        <v>752.6250280413803</v>
       </c>
       <c r="X42" t="n">
-        <v>542.3990760562947</v>
+        <v>752.6250280413803</v>
       </c>
       <c r="Y42" t="n">
-        <v>540.5958746788989</v>
+        <v>752.6250280413803</v>
       </c>
     </row>
     <row r="43">
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="O43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="P43" t="n">
         <v>130.1759968085602</v>
@@ -7606,13 +7606,13 @@
         <v>77.8811138844992</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676711</v>
+        <v>818.5041758676715</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002148</v>
+        <v>708.1923754002153</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418005</v>
+        <v>610.4395019418009</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173164</v>
+        <v>478.6394038173169</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641687</v>
+        <v>314.7985606641691</v>
       </c>
       <c r="G44" t="n">
         <v>135.1611646770911</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J44" t="n">
         <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>190.670379421188</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L44" t="n">
-        <v>476.0305644206952</v>
+        <v>707.9998061668181</v>
       </c>
       <c r="M44" t="n">
-        <v>754.1359725177047</v>
+        <v>842.914668984826</v>
       </c>
       <c r="N44" t="n">
-        <v>829.5232224509427</v>
+        <v>918.3019189180642</v>
       </c>
       <c r="O44" t="n">
-        <v>1102.386752853586</v>
+        <v>952.5786025514938</v>
       </c>
       <c r="P44" t="n">
-        <v>1326.080383469423</v>
+        <v>1176.272233167331</v>
       </c>
       <c r="Q44" t="n">
-        <v>1326.080383469423</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
         <v>1371.755396567411</v>
@@ -7676,22 +7676,22 @@
         <v>1385.107999142261</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.455079531116</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="U44" t="n">
         <v>1394.208918225168</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.519050860769</v>
+        <v>1313.51905086077</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X44" t="n">
         <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590206</v>
+        <v>952.9389490590211</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>349.2769341123465</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C45" t="n">
-        <v>349.2769341123465</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D45" t="n">
-        <v>188.4968178733782</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4968178733782</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K45" t="n">
-        <v>66.06116862292698</v>
+        <v>66.061168622927</v>
       </c>
       <c r="L45" t="n">
         <v>183.4327335947453</v>
@@ -7746,31 +7746,31 @@
         <v>785.5081342426761</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="R45" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="S45" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="T45" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="U45" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="V45" t="n">
-        <v>785.5081342426761</v>
+        <v>695.5115181705697</v>
       </c>
       <c r="W45" t="n">
-        <v>759.5406911531667</v>
+        <v>426.1129489008611</v>
       </c>
       <c r="X45" t="n">
-        <v>574.9176271770189</v>
+        <v>206.6049545175574</v>
       </c>
       <c r="Y45" t="n">
-        <v>349.2769341123465</v>
+        <v>206.6049545175574</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F46" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G46" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H46" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I46" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J46" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K46" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="L46" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="M46" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="N46" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="O46" t="n">
-        <v>129.1183349635734</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="P46" t="n">
         <v>130.1759968085602</v>
@@ -7837,19 +7837,19 @@
         <v>130.1759968085602</v>
       </c>
       <c r="U46" t="n">
-        <v>82.03485152697662</v>
+        <v>82.03485152697664</v>
       </c>
       <c r="V46" t="n">
-        <v>77.88111388449919</v>
+        <v>77.8811138844992</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062232</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
   </sheetData>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.195214002696588</v>
+        <v>22.56253726669537</v>
       </c>
       <c r="C11" t="n">
         <v>171.8758480566237</v>
@@ -23264,7 +23264,7 @@
         <v>159.4425103176721</v>
       </c>
       <c r="E11" t="n">
-        <v>43.59430975811656</v>
+        <v>193.149262737081</v>
       </c>
       <c r="F11" t="n">
         <v>36.30722326487674</v>
@@ -23276,7 +23276,7 @@
         <v>168.6883080494462</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384206</v>
+        <v>62.66716559384207</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718779</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550877</v>
+        <v>49.17968824550879</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065511</v>
+        <v>44.13476116065514</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673108</v>
+        <v>71.82086528673111</v>
       </c>
       <c r="V11" t="n">
         <v>142.5501342845969</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012118</v>
       </c>
       <c r="X11" t="n">
-        <v>181.453064970151</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>15.39354104331315</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.7575910532782</v>
+        <v>7.195214002696531</v>
       </c>
       <c r="C14" t="n">
-        <v>36.11842912099593</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
         <v>159.4425103176721</v>
@@ -23504,16 +23504,16 @@
         <v>193.149262737081</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154583</v>
+        <v>99.57533949601358</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046806</v>
+        <v>51.94581057046801</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384202</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550877</v>
+        <v>49.17968824550874</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065511</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673108</v>
+        <v>71.82086528673105</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845969</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X14" t="n">
-        <v>181.453064970151</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
         <v>203.9559180938947</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26320,19 +26320,19 @@
         <v>154338.0991558804</v>
       </c>
       <c r="E2" t="n">
-        <v>132998.2655785838</v>
+        <v>132998.2655785839</v>
       </c>
       <c r="F2" t="n">
-        <v>132998.2655785838</v>
+        <v>132998.265578584</v>
       </c>
       <c r="G2" t="n">
+        <v>154650.7460502439</v>
+      </c>
+      <c r="H2" t="n">
         <v>154650.7460502438</v>
       </c>
-      <c r="H2" t="n">
-        <v>154650.7460502439</v>
-      </c>
       <c r="I2" t="n">
-        <v>154650.7460502439</v>
+        <v>154650.7460502438</v>
       </c>
       <c r="J2" t="n">
         <v>154650.746050244</v>
@@ -26341,13 +26341,13 @@
         <v>154650.746050244</v>
       </c>
       <c r="L2" t="n">
-        <v>154650.7460502441</v>
+        <v>154650.746050244</v>
       </c>
       <c r="M2" t="n">
+        <v>154650.7460502439</v>
+      </c>
+      <c r="N2" t="n">
         <v>154650.7460502438</v>
-      </c>
-      <c r="N2" t="n">
-        <v>154650.7460502439</v>
       </c>
       <c r="O2" t="n">
         <v>154650.7460502438</v>
@@ -26375,10 +26375,10 @@
         <v>280312.8421842063</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400485</v>
+        <v>95275.95397400482</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400481</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145965</v>
+        <v>46874.16014145967</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660011</v>
+        <v>72403.4818166</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,19 +26442,19 @@
         <v>396695.6540483334</v>
       </c>
       <c r="K4" t="n">
-        <v>396695.6540483334</v>
+        <v>396695.6540483333</v>
       </c>
       <c r="L4" t="n">
         <v>396695.6540483333</v>
       </c>
       <c r="M4" t="n">
-        <v>395870.627070532</v>
+        <v>395870.6270705321</v>
       </c>
       <c r="N4" t="n">
-        <v>395870.627070532</v>
+        <v>395870.6270705321</v>
       </c>
       <c r="O4" t="n">
-        <v>396257.8704432698</v>
+        <v>396257.8704432697</v>
       </c>
       <c r="P4" t="n">
         <v>396257.8704432698</v>
@@ -26485,28 +26485,28 @@
         <v>38676.13884131941</v>
       </c>
       <c r="H5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
+        <v>47453.77647951491</v>
+      </c>
+      <c r="K5" t="n">
         <v>47453.77647951488</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47453.7764795149</v>
       </c>
       <c r="L5" t="n">
         <v>47453.77647951488</v>
       </c>
       <c r="M5" t="n">
-        <v>40915.01366600499</v>
+        <v>40915.013666005</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.01366600499</v>
+        <v>40915.013666005</v>
       </c>
       <c r="O5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152495</v>
       </c>
       <c r="P5" t="n">
         <v>43800.23675152495</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-314812.1394654348</v>
+        <v>-314816.60584964</v>
       </c>
       <c r="C6" t="n">
-        <v>-314812.1394654348</v>
+        <v>-314816.60584964</v>
       </c>
       <c r="D6" t="n">
-        <v>-314812.1394654348</v>
+        <v>-314816.60584964</v>
       </c>
       <c r="E6" t="n">
-        <v>-501324.8165909214</v>
+        <v>-501634.1377405165</v>
       </c>
       <c r="F6" t="n">
-        <v>-221011.9744067151</v>
+        <v>-221321.2955563102</v>
       </c>
       <c r="G6" t="n">
-        <v>-375110.6170320682</v>
+        <v>-375110.6170320681</v>
       </c>
       <c r="H6" t="n">
-        <v>-279834.6630580632</v>
+        <v>-279834.6630580633</v>
       </c>
       <c r="I6" t="n">
-        <v>-279834.6630580632</v>
+        <v>-279834.6630580633</v>
       </c>
       <c r="J6" t="n">
-        <v>-433143.6880019455</v>
+        <v>-433143.6880019454</v>
       </c>
       <c r="K6" t="n">
         <v>-289498.6844776042</v>
       </c>
       <c r="L6" t="n">
-        <v>-384774.6384516089</v>
+        <v>-384774.6384516091</v>
       </c>
       <c r="M6" t="n">
-        <v>-329009.0548277528</v>
+        <v>-329009.0548277529</v>
       </c>
       <c r="N6" t="n">
-        <v>-282134.8946862931</v>
+        <v>-282134.8946862933</v>
       </c>
       <c r="O6" t="n">
-        <v>-357810.8429611512</v>
+        <v>-357810.8429611509</v>
       </c>
       <c r="P6" t="n">
         <v>-285407.361144551</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F2" t="n">
         <v>178.3296493245552</v>
@@ -26710,7 +26710,7 @@
         <v>213.4669766680328</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L2" t="n">
         <v>213.4669766680327</v>
@@ -26811,25 +26811,25 @@
         <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252104</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252106</v>
+        <v>449.0207715252105</v>
       </c>
       <c r="L4" t="n">
         <v>449.0207715252105</v>
       </c>
       <c r="M4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="N4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827791</v>
       </c>
       <c r="P4" t="n">
-        <v>350.863769882779</v>
+        <v>350.8637698827791</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
+        <v>119.094942467506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>94.37203420052668</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>119.0949424675061</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>94.37203420052671</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>119.094942467506</v>
-      </c>
       <c r="M2" t="n">
-        <v>58.59270017682456</v>
+        <v>58.59270017682459</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406667</v>
+        <v>63.30917227406655</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746288</v>
+        <v>260.458394474629</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815029</v>
+        <v>90.40537540815023</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675061</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052671</v>
+        <v>94.37203420052668</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="K11" t="n">
-        <v>56.97629019285051</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.04365268017749</v>
+        <v>160.0433975822948</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
     </row>
     <row r="12">
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245552</v>
+        <v>170.0379708442214</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28184,13 +28184,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
-        <v>77.67817280169672</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I12" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="V12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
     </row>
     <row r="13">
@@ -28245,19 +28245,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3296493245552</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="G13" t="n">
         <v>168.7006242014745</v>
@@ -28266,55 +28266,55 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I13" t="n">
-        <v>164.8484353357569</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="K13" t="n">
-        <v>178.3296493245552</v>
+        <v>83.61411256413687</v>
       </c>
       <c r="L13" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M13" t="n">
-        <v>119.7121668681899</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N13" t="n">
-        <v>178.3296493245552</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="P13" t="n">
-        <v>58.46036931460878</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
     </row>
     <row r="14">
@@ -28348,25 +28348,25 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>76.75309993802783</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K14" t="n">
-        <v>6.68444951827319</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>172.5009930341242</v>
+        <v>18.72681672392942</v>
       </c>
       <c r="Q14" t="n">
         <v>178.3296493245552</v>
@@ -28409,7 +28409,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28421,10 +28421,10 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245552</v>
+        <v>100.6446968256266</v>
       </c>
       <c r="T15" t="n">
         <v>178.3296493245552</v>
@@ -28466,7 +28466,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="W15" t="n">
-        <v>136.6384349335069</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
         <v>178.3296493245552</v>
@@ -28491,7 +28491,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28503,31 +28503,31 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I16" t="n">
-        <v>164.8484353357569</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="K16" t="n">
+        <v>67.01246855587064</v>
+      </c>
+      <c r="L16" t="n">
+        <v>121.2808176387757</v>
+      </c>
+      <c r="M16" t="n">
+        <v>25.19323846374671</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.4970922298436</v>
+      </c>
+      <c r="O16" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="L16" t="n">
+      <c r="P16" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="M16" t="n">
-        <v>56.99602532294688</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="O16" t="n">
-        <v>37.45757960830505</v>
-      </c>
-      <c r="P16" t="n">
-        <v>58.46036931460878</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245552</v>
@@ -28582,22 +28582,22 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>76.75309993802782</v>
+        <v>188.8004075352813</v>
       </c>
       <c r="K17" t="n">
-        <v>195.2468265688547</v>
+        <v>6.684449518273176</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>108.9244722002541</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28606,7 +28606,7 @@
         <v>15.04365268017747</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.67545097688966</v>
+        <v>278.2378280274713</v>
       </c>
       <c r="R17" t="n">
         <v>297.4245917920612</v>
@@ -28618,7 +28618,7 @@
         <v>222.4644104852103</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V17" t="n">
         <v>297.4245917920612</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28655,16 +28655,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,16 +28685,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668495</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490284</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532169</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280576689302</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>78.14220652643002</v>
+        <v>245.8393688791348</v>
       </c>
       <c r="X18" t="n">
-        <v>174.1239284308367</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.82190908344404</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28819,40 +28819,40 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J20" t="n">
-        <v>76.75309993802783</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K20" t="n">
-        <v>6.68444951827319</v>
+        <v>43.77157580867565</v>
       </c>
       <c r="L20" t="n">
-        <v>141.3165808583654</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>22.89796790143181</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017749</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2378280274713</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
         <v>227.5093375700639</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
         <v>297.4245917920612</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28901,7 +28901,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,25 +28922,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490284</v>
       </c>
       <c r="T21" t="n">
-        <v>171.7812129372693</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>48.6656806183486</v>
+        <v>48.66568061834857</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482064</v>
       </c>
       <c r="W21" t="n">
-        <v>78.14220652643002</v>
+        <v>159.9235329985825</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28983,19 +28983,19 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K22" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P22" t="n">
         <v>58.46036931460878</v>
@@ -29059,13 +29059,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>76.75309993802783</v>
+        <v>76.75309993802782</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2468265688548</v>
+        <v>6.684449518273176</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3165808583654</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017749</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q23" t="n">
-        <v>140.3291544148737</v>
+        <v>245.4097000958761</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29138,7 +29138,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7086383504341</v>
@@ -29168,22 +29168,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
-        <v>26.40782189532172</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280576689302</v>
+        <v>48.66568061834857</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482064</v>
       </c>
       <c r="W24" t="n">
-        <v>78.14220652643002</v>
+        <v>78.14220652642999</v>
       </c>
       <c r="X24" t="n">
-        <v>51.2271727333183</v>
+        <v>110.5318638610415</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.82190908344404</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29220,19 +29220,19 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K25" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P25" t="n">
         <v>58.46036931460878</v>
@@ -29308,7 +29308,7 @@
         <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680325</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
         <v>213.4669766680328</v>
@@ -29357,7 +29357,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29366,7 +29366,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
         <v>125.7337882414754</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668502</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R27" t="n">
         <v>134.7086383504341</v>
@@ -29408,10 +29408,10 @@
         <v>213.4669766680328</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4669766680328</v>
+        <v>9.98338935111201</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>104.4331524493163</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="28">
@@ -29451,25 +29451,25 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
+        <v>164.8484353357569</v>
+      </c>
+      <c r="J28" t="n">
+        <v>120.2289512774728</v>
+      </c>
+      <c r="K28" t="n">
+        <v>67.01246855587064</v>
+      </c>
+      <c r="L28" t="n">
+        <v>76.55079692346973</v>
+      </c>
+      <c r="M28" t="n">
         <v>213.4669766680328</v>
       </c>
-      <c r="J28" t="n">
-        <v>213.4669766680328</v>
-      </c>
-      <c r="K28" t="n">
-        <v>67.01246855587065</v>
-      </c>
-      <c r="L28" t="n">
-        <v>32.12940745055727</v>
-      </c>
-      <c r="M28" t="n">
-        <v>105.9880067311335</v>
-      </c>
       <c r="N28" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P28" t="n">
         <v>58.46036931460878</v>
@@ -29478,7 +29478,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>213.4669766680328</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
         <v>213.4669766680328</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="30">
@@ -29591,16 +29591,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>46.92393690768654</v>
       </c>
       <c r="D30" t="n">
-        <v>143.2068792840237</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
@@ -29612,7 +29612,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668502</v>
+        <v>6.846506480668495</v>
       </c>
       <c r="R30" t="n">
         <v>134.7086383504341</v>
@@ -29642,22 +29642,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="31">
@@ -29694,19 +29694,19 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>123.6981991733414</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055727</v>
+        <v>76.55079692347017</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374672</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N31" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O31" t="n">
-        <v>213.4669766680328</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P31" t="n">
         <v>58.46036931460878</v>
@@ -29718,25 +29718,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="32">
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>139.2857286379922</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504341</v>
@@ -29882,10 +29882,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="V33" t="n">
-        <v>9.983389351112152</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="34">
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29922,37 +29922,37 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H34" t="n">
-        <v>213.4669766680327</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I34" t="n">
-        <v>213.4669766680327</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
-        <v>146.3915474160904</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460878</v>
+        <v>204.8928850672797</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.204364743505</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R34" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680327</v>
@@ -30004,40 +30004,40 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
-        <v>240.9968149183972</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802783</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>152.9724226662636</v>
+        <v>6.684449518273176</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2125982824128</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3096571683278</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8354817135889</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017749</v>
+        <v>204.5908538636849</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.67545097688966</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R35" t="n">
-        <v>194.8604380517429</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5093375700639</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U35" t="n">
         <v>272.0596768448573</v>
@@ -30068,10 +30068,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>78.82169673440421</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504341</v>
@@ -30122,13 +30122,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.24618910238263</v>
+        <v>6.246189102382687</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>212.6301516535673</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30165,22 +30165,22 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J37" t="n">
-        <v>155.7844069929974</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
-        <v>67.01246855587065</v>
+        <v>102.5679242713952</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P37" t="n">
         <v>58.46036931460878</v>
@@ -30241,40 +30241,40 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>240.9968149183972</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J38" t="n">
-        <v>76.75309993802783</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K38" t="n">
-        <v>267.1428439929022</v>
+        <v>196.2316507017808</v>
       </c>
       <c r="L38" t="n">
-        <v>97.94309352660224</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>184.3096571683278</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017749</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="R38" t="n">
-        <v>194.8604380517429</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U38" t="n">
         <v>272.0596768448573</v>
@@ -30302,13 +30302,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>145.6556107276263</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>134.6195806037289</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30323,7 +30323,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
@@ -30353,22 +30353,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.24618910238263</v>
+        <v>6.246189102382687</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30405,22 +30405,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830505</v>
+        <v>73.01303532382961</v>
       </c>
       <c r="P40" t="n">
-        <v>94.01582503013347</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30481,28 +30481,28 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
-        <v>76.75309993802783</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K41" t="n">
-        <v>6.68444951827319</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>240.9968149183972</v>
+        <v>54.53995161096569</v>
       </c>
       <c r="O41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="P41" t="n">
-        <v>122.4237660961727</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.67545097688966</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R41" t="n">
         <v>240.9968149183972</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>136.7816047720878</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30560,7 +30560,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30590,7 +30590,7 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280576689302</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>221.5991167704038</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30642,22 +30642,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984361</v>
+        <v>119.6353702277607</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P43" t="n">
-        <v>161.5986473125258</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q43" t="n">
         <v>127.204364743505</v>
@@ -30721,25 +30721,25 @@
         <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
-        <v>6.68444951827319</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="M44" t="n">
-        <v>199.1768660341997</v>
+        <v>54.53995161096582</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.67545097688966</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R44" t="n">
         <v>240.9968149183972</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504341</v>
@@ -30833,16 +30833,16 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>158.3987774846854</v>
       </c>
       <c r="W45" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>34.53608110308429</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>240.9968149183972</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.7006242014745</v>
@@ -30879,22 +30879,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K46" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830505</v>
+        <v>140.5958576062221</v>
       </c>
       <c r="P46" t="n">
-        <v>59.52871461257527</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I11" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P11" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H12" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I12" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193117</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P12" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R12" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H13" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785129</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I14" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P14" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T14" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H15" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I15" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P15" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q15" t="n">
         <v>27.80117545144756</v>
@@ -32102,13 +32102,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H16" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J16" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K16" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L16" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M16" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q16" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I20" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P20" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T20" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H21" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I21" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P21" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q21" t="n">
         <v>27.80117545144756</v>
@@ -32576,13 +32576,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H22" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L22" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q22" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I23" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P23" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T23" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H24" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I24" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P24" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q24" t="n">
         <v>27.80117545144756</v>
@@ -32813,13 +32813,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H25" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L25" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q25" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I26" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P26" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T26" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H27" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I27" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P27" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q27" t="n">
         <v>27.80117545144756</v>
@@ -33050,13 +33050,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H28" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L28" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q28" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I29" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P29" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T29" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H30" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I30" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P30" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q30" t="n">
         <v>27.80117545144756</v>
@@ -33287,13 +33287,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H31" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L31" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O31" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q31" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I32" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P32" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T32" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P33" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q33" t="n">
         <v>27.80117545144756</v>
@@ -33524,13 +33524,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S33" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H34" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J34" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L34" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q34" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I35" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P35" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T35" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P36" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q36" t="n">
         <v>27.80117545144756</v>
@@ -33761,13 +33761,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S36" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H37" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J37" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L37" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q37" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I38" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P38" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T38" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P39" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q39" t="n">
         <v>27.80117545144756</v>
@@ -33998,13 +33998,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S39" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H40" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J40" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L40" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q40" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I41" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P41" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T41" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q42" t="n">
         <v>27.80117545144756</v>
@@ -34235,13 +34235,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S42" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H43" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J43" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L43" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q43" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767065</v>
       </c>
       <c r="I44" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302565</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048835</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690873</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306044</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P44" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995076</v>
       </c>
       <c r="T44" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I45" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645663</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876703</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225412</v>
       </c>
       <c r="Q45" t="n">
         <v>27.80117545144756</v>
@@ -34472,13 +34472,13 @@
         <v>13.52231444786599</v>
       </c>
       <c r="S45" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868071</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841223</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H46" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J46" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L46" t="n">
         <v>27.14629101362619</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785129</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q46" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831299</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210183</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>101.5765493865273</v>
       </c>
       <c r="K11" t="n">
-        <v>50.29184067457732</v>
+        <v>171.645199806282</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221615</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914319</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N11" t="n">
-        <v>188.5623770505816</v>
+        <v>76.14873730630117</v>
       </c>
       <c r="O11" t="n">
-        <v>188.5623770505816</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>144.9997449021174</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.6541983476655</v>
+        <v>88.65419834766548</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35504,7 +35504,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P12" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,19 +35541,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595870714</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.14699907384443</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.65350811233014</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.40276710610848</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35562,31 +35562,31 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.48121398879826</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.10069804708237</v>
       </c>
       <c r="K13" t="n">
-        <v>111.3171807686845</v>
+        <v>16.60164400826624</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>94.51892840444322</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.8325570947115</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>140.8720697162501</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>51.12528458105014</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.645199806282</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221615</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5623770505816</v>
+        <v>81.7376875991432</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630113</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O14" t="n">
-        <v>188.5623770505816</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P14" t="n">
-        <v>157.4573403539467</v>
+        <v>3.683164043751951</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.6541983476655</v>
+        <v>88.65419834766553</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515632</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35787,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.6535081123302</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35799,31 +35799,31 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.48121398879832</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708239</v>
+        <v>58.10069804708242</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686845</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>146.2002418739979</v>
+        <v>89.15141018821846</v>
       </c>
       <c r="M16" t="n">
-        <v>31.80278685920016</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.8325570947115</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.8720697162501</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.1252845810502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,22 +35878,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.42777687366401</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>112.0473075972535</v>
       </c>
       <c r="K17" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>47.24579619221616</v>
       </c>
       <c r="M17" t="n">
-        <v>188.5623770505816</v>
+        <v>81.7376875991432</v>
       </c>
       <c r="N17" t="n">
-        <v>185.0732095065552</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O17" t="n">
         <v>34.62291276104</v>
@@ -35902,7 +35902,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="R17" t="n">
         <v>102.5641537403183</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515632</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -36115,40 +36115,40 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.42777687366401</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>37.08712629040247</v>
       </c>
       <c r="L20" t="n">
-        <v>188.5623770505816</v>
+        <v>47.24579619221616</v>
       </c>
       <c r="M20" t="n">
-        <v>188.5623770505816</v>
+        <v>81.7376875991432</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630113</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O20" t="n">
-        <v>57.5208806624718</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U20" t="n">
         <v>47.27407718077497</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515632</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.427776873664</v>
+        <v>56.42777687366401</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>188.5623770505816</v>
+        <v>47.24579619221616</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914319</v>
+        <v>81.7376875991432</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630113</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O23" t="n">
-        <v>34.62291276103998</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.653703437984</v>
+        <v>155.7342491189864</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S23" t="n">
         <v>69.91525422199729</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515632</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K26" t="n">
         <v>206.7825271497596</v>
@@ -36604,10 +36604,10 @@
         <v>295.204664267176</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743337</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P26" t="n">
         <v>198.4233239878553</v>
@@ -36616,7 +36616,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628983</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36747,19 +36747,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.6185413322759</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.23802539056</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>44.42138947291247</v>
       </c>
       <c r="M28" t="n">
-        <v>80.79476826738673</v>
+        <v>188.273738204286</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.04379268697591</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L29" t="n">
         <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
         <v>289.6157139743339</v>
@@ -36847,13 +36847,13 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628984</v>
+        <v>18.60653861628978</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36990,19 +36990,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.68573061747078</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>44.42138947291292</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.273738204286</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0093970597277</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L32" t="n">
-        <v>260.7127728602488</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M32" t="n">
         <v>295.2046642671759</v>
@@ -37084,13 +37084,13 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q32" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628978</v>
+        <v>18.60653861628974</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.00979569606037</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37218,16 +37218,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.64391910166709</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.61854133227584</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>79.37907886021972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>146.4325157526709</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.26261192452775</v>
       </c>
       <c r="R34" t="n">
-        <v>10.04379268697586</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.06286192646012</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K35" t="n">
-        <v>146.2879731479904</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>260.458394474629</v>
+        <v>47.24579619221616</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914319</v>
+        <v>81.7376875991432</v>
       </c>
       <c r="N35" t="n">
-        <v>260.458394474629</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O35" t="n">
-        <v>260.458394474629</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>189.5472011835075</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3842258679677</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.1992387931144</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.55033927479341</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59526635964706</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90916223357103</v>
+        <v>21.90916223357109</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.06286192646012</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K38" t="n">
-        <v>260.458394474629</v>
+        <v>189.5472011835076</v>
       </c>
       <c r="L38" t="n">
-        <v>145.1888897188184</v>
+        <v>47.24579619221616</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914319</v>
+        <v>81.7376875991432</v>
       </c>
       <c r="N38" t="n">
-        <v>260.458394474629</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276103998</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679676</v>
+        <v>182.3842258679677</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.1992387931144</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479334</v>
+        <v>44.55033927479341</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59526635964706</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357103</v>
+        <v>21.90916223357109</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37713,10 +37713,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="P40" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2426111106134</v>
+        <v>47.24579619221616</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7345025175404</v>
+        <v>81.7376875991432</v>
       </c>
       <c r="N41" t="n">
-        <v>317.1455522246983</v>
+        <v>130.6886889172668</v>
       </c>
       <c r="O41" t="n">
         <v>275.6197276794372</v>
       </c>
       <c r="P41" t="n">
-        <v>107.3801134159952</v>
+        <v>225.9531622382198</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R41" t="n">
         <v>46.1363768666543</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4874773483333</v>
+        <v>13.48747734833331</v>
       </c>
       <c r="T41" t="n">
         <v>18.53240443318696</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37947,13 +37947,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,31 +38017,31 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
         <v>288.2426111106134</v>
       </c>
       <c r="M44" t="n">
-        <v>280.9145536333428</v>
+        <v>136.277639210109</v>
       </c>
       <c r="N44" t="n">
-        <v>76.14873730630113</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O44" t="n">
-        <v>275.6197276794372</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>225.9531622382198</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R44" t="n">
         <v>46.1363768666543</v>
       </c>
       <c r="S44" t="n">
-        <v>13.4874773483333</v>
+        <v>13.48747734833331</v>
       </c>
       <c r="T44" t="n">
         <v>18.53240443318696</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>102.0699326999506</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="P46" t="n">
-        <v>1.06834529796649</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
